--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -47,7 +47,7 @@
     <t>'2.2.8'</t>
   </si>
   <si>
-    <t>2016-09-05 10:18 AM</t>
+    <t>2016-09-05 20:21 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -102,13 +102,13 @@
     <t>内存占用峰值</t>
   </si>
   <si>
-    <t>3086M</t>
-  </si>
-  <si>
-    <t>内存平均使用情况</t>
-  </si>
-  <si>
-    <t>内存最大峰值</t>
+    <t>3014M</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>76KB</t>
   </si>
   <si>
     <t>CPU</t>
@@ -123,10 +123,10 @@
     <t>8核</t>
   </si>
   <si>
-    <t>cpu平均使用情况</t>
-  </si>
-  <si>
-    <t>cpu最大峰值使用情况</t>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>77%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -663,7 +663,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="3">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3"/>
     </row>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -47,7 +47,7 @@
     <t>'2.2.8'</t>
   </si>
   <si>
-    <t>2016-09-05 20:21 PM</t>
+    <t>2016-09-06 20:06 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>测试耗时</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -105,10 +108,10 @@
     <t>3014M</t>
   </si>
   <si>
-    <t>1%</t>
-  </si>
-  <si>
-    <t>76KB</t>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>80742KB</t>
   </si>
   <si>
     <t>CPU</t>
@@ -123,10 +126,10 @@
     <t>8核</t>
   </si>
   <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>77%</t>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>80%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -172,9 +175,6 @@
   </si>
   <si>
     <t>test_home_shopcart</t>
-  </si>
-  <si>
-    <t>我的模块1</t>
   </si>
 </sst>
 </file>
@@ -611,10 +611,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
@@ -629,10 +629,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
@@ -662,15 +662,15 @@
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
-        <v>57</v>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1"/>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -680,62 +680,62 @@
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1"/>
@@ -771,7 +771,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -781,22 +781,22 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
@@ -804,16 +804,16 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -822,16 +822,16 @@
         <v>1004</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -840,73 +840,22 @@
         <v>1003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="3">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1"/>
+    <row r="7" spans="1:6" ht="30" customHeight="1"/>
+    <row r="8" spans="1:6" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -47,7 +47,7 @@
     <t>'2.2.8'</t>
   </si>
   <si>
-    <t>2016-09-06 20:06 PM</t>
+    <t>2016-09-07 11:24 AM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +62,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>25</t>
+    <t>21</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -111,7 +111,7 @@
     <t>23%</t>
   </si>
   <si>
-    <t>80742KB</t>
+    <t>78070KB</t>
   </si>
   <si>
     <t>CPU</t>
@@ -126,10 +126,10 @@
     <t>8核</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>80%</t>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>53%</t>
   </si>
   <si>
     <t>测试详情</t>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -47,7 +47,7 @@
     <t>'2.2.8'</t>
   </si>
   <si>
-    <t>2016-09-07 11:24 AM</t>
+    <t>2016-09-07 11:34 AM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +62,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>21</t>
+    <t>30</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -108,10 +108,10 @@
     <t>3014M</t>
   </si>
   <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>78070KB</t>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>77021KB</t>
   </si>
   <si>
     <t>CPU</t>
@@ -126,10 +126,10 @@
     <t>8核</t>
   </si>
   <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>53%</t>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>71%</t>
   </si>
   <si>
     <t>测试详情</t>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,10 +44,7 @@
     <t>17M</t>
   </si>
   <si>
-    <t>'2.2.8'</t>
-  </si>
-  <si>
-    <t>2016-09-07 11:34 AM</t>
+    <t>2016-09-21 17:13 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>30</t>
+    <t>22</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -108,10 +105,10 @@
     <t>3014M</t>
   </si>
   <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>77021KB</t>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>20747KB</t>
   </si>
   <si>
     <t>CPU</t>
@@ -126,10 +123,7 @@
     <t>8核</t>
   </si>
   <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>71%</t>
+    <t>0%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -153,28 +147,16 @@
     <t>失败原因</t>
   </si>
   <si>
-    <t>我的模块2</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>test_home_info</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>我的二维码</t>
-  </si>
-  <si>
-    <t>test_home_mycode</t>
-  </si>
-  <si>
-    <t>邀请</t>
-  </si>
-  <si>
-    <t>test_home_shopcart</t>
+    <t>闪退测试</t>
+  </si>
+  <si>
+    <t>test_crase1</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>检查不到元素</t>
   </si>
 </sst>
 </file>
@@ -608,13 +590,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
@@ -626,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
@@ -640,14 +622,12 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -657,20 +637,20 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1"/>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -680,62 +660,62 @@
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1"/>
@@ -771,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -781,78 +761,46 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="3">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="3">
-        <v>1004</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1"/>
+    <row r="5" spans="1:6" ht="30" customHeight="1"/>
     <row r="6" spans="1:6" ht="30" customHeight="1"/>
     <row r="7" spans="1:6" ht="30" customHeight="1"/>
     <row r="8" spans="1:6" ht="30" customHeight="1"/>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -38,13 +38,17 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>智商beta</t>
-  </si>
-  <si>
-    <t>17M</t>
-  </si>
-  <si>
-    <t>2016-09-21 17:13 PM</t>
+    <t>monkneyTest</t>
+  </si>
+  <si>
+    <t>0M</t>
+  </si>
+  <si>
+    <t>nName='1.0' platformBuildVersionName='4.0.2-1406408'
+launchable-activity: name='com.example.monkneytest.MainActivity'</t>
+  </si>
+  <si>
+    <t>2016-09-23 16:11 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +63,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>22</t>
+    <t>15</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,16 +84,16 @@
     <t>手机系统</t>
   </si>
   <si>
-    <t xml:space="preserve">H60-L02
- Huawei
+    <t xml:space="preserve">HM NOTE 1S
+ Xiaomi
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1080x1920
+    <t xml:space="preserve"> 720x1280
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2
+    <t xml:space="preserve">4.4.4
 </t>
   </si>
   <si>
@@ -102,13 +106,13 @@
     <t>内存占用峰值</t>
   </si>
   <si>
-    <t>3014M</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>20747KB</t>
+    <t>899M</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>100KB</t>
   </si>
   <si>
     <t>CPU</t>
@@ -120,10 +124,13 @@
     <t>CPU占用峰值</t>
   </si>
   <si>
-    <t>8核</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>4核</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>19%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -153,10 +160,13 @@
     <t>test_crase1</t>
   </si>
   <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>检查不到元素</t>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>闪退正常</t>
+  </si>
+  <si>
+    <t>test_crase2</t>
   </si>
 </sst>
 </file>
@@ -590,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
@@ -608,13 +618,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
@@ -622,12 +632,14 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -637,20 +649,20 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1"/>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -660,62 +672,62 @@
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1"/>
@@ -751,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -761,22 +773,22 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
@@ -784,22 +796,37 @@
         <v>1003</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1"/>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
     <row r="5" spans="1:6" ht="30" customHeight="1"/>
     <row r="6" spans="1:6" ht="30" customHeight="1"/>
     <row r="7" spans="1:6" ht="30" customHeight="1"/>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -14,9 +14,174 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+  <si>
+    <t>测试报告总概况</t>
+  </si>
+  <si>
+    <t>测试概括</t>
+  </si>
+  <si>
+    <t>这里放图片</t>
+  </si>
+  <si>
+    <t>APP名称</t>
+  </si>
+  <si>
+    <t>APP大小</t>
+  </si>
+  <si>
+    <t>APP版本</t>
+  </si>
+  <si>
+    <t>测试日期</t>
+  </si>
+  <si>
+    <t>智商beta</t>
+  </si>
+  <si>
+    <t>22M</t>
+  </si>
+  <si>
+    <t>'3.0.0</t>
+  </si>
+  <si>
+    <t>2016-10-25 15:02 PM</t>
+  </si>
+  <si>
+    <t>用例总数</t>
+  </si>
+  <si>
+    <t>通过总数</t>
+  </si>
+  <si>
+    <t>失败总数</t>
+  </si>
+  <si>
+    <t>测试耗时</t>
+  </si>
+  <si>
+    <t>66秒</t>
+  </si>
+  <si>
+    <t>脚本语言</t>
+  </si>
+  <si>
+    <t>appium+python3</t>
+  </si>
+  <si>
+    <t>测试手机详情</t>
+  </si>
+  <si>
+    <t>手机名字</t>
+  </si>
+  <si>
+    <t>手机分辨率</t>
+  </si>
+  <si>
+    <t>手机系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H60-L02
+ Huawei
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1080x1920
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2
+</t>
+  </si>
+  <si>
+    <t>运行内存</t>
+  </si>
+  <si>
+    <t>内存占用均值</t>
+  </si>
+  <si>
+    <t>内存占用峰值</t>
+  </si>
+  <si>
+    <t>3014M</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>146M</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>CPU占用均值</t>
+  </si>
+  <si>
+    <t>CPU占用峰值</t>
+  </si>
+  <si>
+    <t>8核</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>测试详情</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>用例介绍</t>
+  </si>
+  <si>
+    <t>用例名字</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>失败原因</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>引导图</t>
+  </si>
+  <si>
+    <t>test_home_fist_open</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>test_home_login</t>
+  </si>
+  <si>
+    <t>个人反馈</t>
+  </si>
+  <si>
+    <t>test_home_feed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,16 +189,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,12 +236,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,24 +563,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1"/>
+    <row r="7" spans="1:6" ht="30" customHeight="1"/>
+    <row r="8" spans="1:6" ht="30" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -47,7 +47,7 @@
     <t>'3.0.0</t>
   </si>
   <si>
-    <t>2016-10-25 15:02 PM</t>
+    <t>2016-10-26 19:04 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +62,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>66秒</t>
+    <t>62秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>手机系统</t>
+  </si>
+  <si>
+    <t>FPS均值</t>
   </si>
   <si>
     <t xml:space="preserve">H60-L02
@@ -96,6 +99,9 @@
 </t>
   </si>
   <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>运行内存</t>
   </si>
   <si>
@@ -105,13 +111,19 @@
     <t>内存占用峰值</t>
   </si>
   <si>
+    <t>FPS峰值</t>
+  </si>
+  <si>
     <t>3014M</t>
   </si>
   <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>146M</t>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>147M</t>
+  </si>
+  <si>
+    <t>120.32</t>
   </si>
   <si>
     <t>CPU</t>
@@ -126,10 +138,10 @@
     <t>8核</t>
   </si>
   <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>76%</t>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>78%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -563,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,19 +695,19 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
@@ -703,19 +715,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
@@ -723,22 +735,36 @@
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1"/>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
@@ -771,7 +797,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -781,22 +807,22 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
@@ -804,16 +830,16 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -822,16 +848,16 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -840,16 +866,16 @@
         <v>1003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F5" s="3"/>
     </row>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -47,7 +47,7 @@
     <t>'3.0.0</t>
   </si>
   <si>
-    <t>2016-10-26 19:04 PM</t>
+    <t>2016-10-28 17:14 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +62,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>62秒</t>
+    <t>89秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -99,7 +99,7 @@
 </t>
   </si>
   <si>
-    <t>15.00</t>
+    <t>20.00</t>
   </si>
   <si>
     <t>运行内存</t>
@@ -120,10 +120,10 @@
     <t>32%</t>
   </si>
   <si>
-    <t>147M</t>
-  </si>
-  <si>
-    <t>120.32</t>
+    <t>157M</t>
+  </si>
+  <si>
+    <t>133.71</t>
   </si>
   <si>
     <t>CPU</t>
@@ -141,7 +141,7 @@
     <t>50%</t>
   </si>
   <si>
-    <t>78%</t>
+    <t>69%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -159,13 +159,25 @@
     <t>用例名字</t>
   </si>
   <si>
-    <t>测试结果</t>
+    <t>内存峰值(M)</t>
+  </si>
+  <si>
+    <t>内存均值(M)</t>
+  </si>
+  <si>
+    <t>CPU峰值</t>
+  </si>
+  <si>
+    <t>CPU均值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试结果 </t>
   </si>
   <si>
     <t>失败原因</t>
   </si>
   <si>
-    <t>首页</t>
+    <t>个人中心</t>
   </si>
   <si>
     <t>引导图</t>
@@ -174,6 +186,21 @@
     <t>test_home_fist_open</t>
   </si>
   <si>
+    <t>135M</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>123.18</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
     <t>成功</t>
   </si>
   <si>
@@ -183,10 +210,55 @@
     <t>test_home_login</t>
   </si>
   <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t>个人反馈</t>
   </si>
   <si>
     <t>test_home_feed</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>应用中心</t>
+  </si>
+  <si>
+    <t>工作汇报</t>
+  </si>
+  <si>
+    <t>test_work_report</t>
+  </si>
+  <si>
+    <t>103M</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>34.61</t>
+  </si>
+  <si>
+    <t>14.00</t>
   </si>
 </sst>
 </file>
@@ -623,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -641,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -779,7 +851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -795,7 +867,7 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -804,8 +876,14 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -824,67 +902,174 @@
       <c r="F2" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1"/>
-    <row r="7" spans="1:6" ht="30" customHeight="1"/>
-    <row r="8" spans="1:6" ht="30" customHeight="1"/>
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
+      <c r="A6" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1"/>
+    <row r="8" spans="1:12" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -47,7 +47,7 @@
     <t>'3.0.0</t>
   </si>
   <si>
-    <t>2016-10-28 17:14 PM</t>
+    <t>2016-11-04 11:17 AM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +62,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>89秒</t>
+    <t>97秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -99,7 +99,7 @@
 </t>
   </si>
   <si>
-    <t>20.00</t>
+    <t>14.00</t>
   </si>
   <si>
     <t>运行内存</t>
@@ -120,10 +120,10 @@
     <t>32%</t>
   </si>
   <si>
-    <t>157M</t>
-  </si>
-  <si>
-    <t>133.71</t>
+    <t>148M</t>
+  </si>
+  <si>
+    <t>90.54</t>
   </si>
   <si>
     <t>CPU</t>
@@ -141,7 +141,7 @@
     <t>50%</t>
   </si>
   <si>
-    <t>69%</t>
+    <t>75%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -189,16 +189,13 @@
     <t>135M</t>
   </si>
   <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>123.18</t>
-  </si>
-  <si>
-    <t>43.00</t>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>33.00</t>
   </si>
   <si>
     <t>成功</t>
@@ -210,16 +207,13 @@
     <t>test_home_login</t>
   </si>
   <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>40.00</t>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>25.00</t>
   </si>
   <si>
     <t>个人反馈</t>
@@ -228,10 +222,13 @@
     <t>test_home_feed</t>
   </si>
   <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>23.00</t>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>15.00</t>
   </si>
   <si>
     <t>应用中心</t>
@@ -243,22 +240,22 @@
     <t>test_work_report</t>
   </si>
   <si>
-    <t>103M</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>60%</t>
+    <t>112M</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>62%</t>
   </si>
   <si>
     <t>54%</t>
   </si>
   <si>
-    <t>34.61</t>
-  </si>
-  <si>
-    <t>14.00</t>
+    <t>37.28</t>
+  </si>
+  <si>
+    <t>11.00</t>
   </si>
 </sst>
 </file>
@@ -947,13 +944,13 @@
         <v>57</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" s="3"/>
     </row>
@@ -965,31 +962,31 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -1001,31 +998,31 @@
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="3"/>
     </row>
@@ -1034,34 +1031,34 @@
         <v>1005</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="3"/>
     </row>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -47,7 +47,7 @@
     <t>'3.0.0</t>
   </si>
   <si>
-    <t>2016-11-04 11:17 AM</t>
+    <t>2016-11-04 14:06 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +62,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>97秒</t>
+    <t>102秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -99,7 +99,7 @@
 </t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>23.00</t>
   </si>
   <si>
     <t>运行内存</t>
@@ -117,13 +117,13 @@
     <t>3014M</t>
   </si>
   <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>148M</t>
-  </si>
-  <si>
-    <t>90.54</t>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>144M</t>
+  </si>
+  <si>
+    <t>187.47</t>
   </si>
   <si>
     <t>CPU</t>
@@ -141,7 +141,7 @@
     <t>50%</t>
   </si>
   <si>
-    <t>75%</t>
+    <t>69%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -186,76 +186,58 @@
     <t>test_home_fist_open</t>
   </si>
   <si>
-    <t>135M</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>33.00</t>
+    <t>123M</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>127.1</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>检查不到元素</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>test_home_login</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>49.00</t>
   </si>
   <si>
     <t>成功</t>
   </si>
   <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>test_home_login</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>30%</t>
+    <t>个人反馈</t>
+  </si>
+  <si>
+    <t>test_home_feed</t>
+  </si>
+  <si>
+    <t>49%</t>
   </si>
   <si>
     <t>25.00</t>
-  </si>
-  <si>
-    <t>个人反馈</t>
-  </si>
-  <si>
-    <t>test_home_feed</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>应用中心</t>
-  </si>
-  <si>
-    <t>工作汇报</t>
-  </si>
-  <si>
-    <t>test_work_report</t>
-  </si>
-  <si>
-    <t>112M</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>37.28</t>
-  </si>
-  <si>
-    <t>11.00</t>
   </si>
 </sst>
 </file>
@@ -692,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -710,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -728,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -935,24 +917,26 @@
         <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="A4" s="3">
@@ -962,33 +946,35 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="3">
@@ -998,70 +984,37 @@
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
-      <c r="A6" s="3">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="3"/>
-    </row>
+        <v>68</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1"/>
     <row r="7" spans="1:12" ht="30" customHeight="1"/>
     <row r="8" spans="1:12" ht="30" customHeight="1"/>
   </sheetData>

--- a/testRunner/report.xlsx
+++ b/testRunner/report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试总况" sheetId="1" r:id="rId1"/>
     <sheet name="测试详情" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -74,181 +74,200 @@
     <t>测试手机详情</t>
   </si>
   <si>
+    <t>FPS均值</t>
+  </si>
+  <si>
+    <t>运行内存</t>
+  </si>
+  <si>
+    <t>FPS峰值</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>144M</t>
+  </si>
+  <si>
+    <t>187.47</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>测试详情</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>用例介绍</t>
+  </si>
+  <si>
+    <t>用例名字</t>
+  </si>
+  <si>
+    <t>内存峰值(M)</t>
+  </si>
+  <si>
+    <t>内存均值(M)</t>
+  </si>
+  <si>
+    <t>CPU峰值</t>
+  </si>
+  <si>
+    <t>CPU均值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试结果 </t>
+  </si>
+  <si>
+    <t>失败原因</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>引导图</t>
+  </si>
+  <si>
+    <t>test_home_fist_open</t>
+  </si>
+  <si>
+    <t>123M</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>127.1</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>检查不到元素</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>test_home_login</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>个人反馈</t>
+  </si>
+  <si>
+    <t>test_home_feed</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>手机名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>手机分辨率</t>
-  </si>
-  <si>
-    <t>手机系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存占用均值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存占用峰值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU占用均值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU占用峰值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FPS均值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H60-L02
- Huawei
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1080x1920
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4.2
-</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>运行内存</t>
-  </si>
-  <si>
-    <t>内存占用均值</t>
-  </si>
-  <si>
-    <t>内存占用峰值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FPS峰值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H60-L02-Huawei-4.4.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3014M</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>144M</t>
-  </si>
-  <si>
-    <t>187.47</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>CPU占用均值</t>
-  </si>
-  <si>
-    <t>CPU占用峰值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>8核</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>测试详情</t>
-  </si>
-  <si>
-    <t>用例ID</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>用例介绍</t>
-  </si>
-  <si>
-    <t>用例名字</t>
-  </si>
-  <si>
-    <t>内存峰值(M)</t>
-  </si>
-  <si>
-    <t>内存均值(M)</t>
-  </si>
-  <si>
-    <t>CPU峰值</t>
-  </si>
-  <si>
-    <t>CPU均值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试结果 </t>
-  </si>
-  <si>
-    <t>失败原因</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>引导图</t>
-  </si>
-  <si>
-    <t>test_home_fist_open</t>
-  </si>
-  <si>
-    <t>123M</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>127.1</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>检查不到元素</t>
-  </si>
-  <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>test_home_login</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>个人反馈</t>
-  </si>
-  <si>
-    <t>test_home_feed</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>25.00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080x1920</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTE_V9180_android_4.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -256,7 +275,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +283,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -272,12 +291,19 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,8 +350,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,12 +364,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -626,401 +672,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="8" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="22.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1"/>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1"/>
+      <c r="C8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27">
+      <c r="A9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27">
+      <c r="A10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A7:J7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A9:F9"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="285" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="9" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="22.5">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1">
-      <c r="A4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1">
-      <c r="A5" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1"/>
-    <row r="7" spans="1:12" ht="30" customHeight="1"/>
-    <row r="8" spans="1:12" ht="30" customHeight="1"/>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1"/>
+    <row r="7" spans="1:13" ht="30" customHeight="1"/>
+    <row r="8" spans="1:13" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>